--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.614608</v>
+        <v>8.050905999999999</v>
       </c>
       <c r="H2">
-        <v>67.843824</v>
+        <v>24.152718</v>
       </c>
       <c r="I2">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="J2">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>92.59233966666666</v>
+        <v>179.7005413333333</v>
       </c>
       <c r="N2">
-        <v>277.777019</v>
+        <v>539.101624</v>
       </c>
       <c r="O2">
-        <v>0.5465415277631132</v>
+        <v>0.7012656334041908</v>
       </c>
       <c r="P2">
-        <v>0.5465415277631133</v>
+        <v>0.7012656334041907</v>
       </c>
       <c r="Q2">
-        <v>2093.939465364517</v>
+        <v>1446.752166423781</v>
       </c>
       <c r="R2">
-        <v>18845.45518828066</v>
+        <v>13020.76949781403</v>
       </c>
       <c r="S2">
-        <v>0.1994979617517516</v>
+        <v>0.1324486373801902</v>
       </c>
       <c r="T2">
-        <v>0.1994979617517516</v>
+        <v>0.1324486373801902</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.614608</v>
+        <v>8.050905999999999</v>
       </c>
       <c r="H3">
-        <v>67.843824</v>
+        <v>24.152718</v>
       </c>
       <c r="I3">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="J3">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>45.42519</v>
       </c>
       <c r="O3">
-        <v>0.08937655401050183</v>
+        <v>0.05908927597267952</v>
       </c>
       <c r="P3">
-        <v>0.08937655401050183</v>
+        <v>0.05908927597267952</v>
       </c>
       <c r="Q3">
-        <v>342.42428839184</v>
+        <v>121.90464490738</v>
       </c>
       <c r="R3">
-        <v>3081.81859552656</v>
+        <v>1097.14180416642</v>
       </c>
       <c r="S3">
-        <v>0.0326241272579358</v>
+        <v>0.01116024187349924</v>
       </c>
       <c r="T3">
-        <v>0.03262412725793579</v>
+        <v>0.01116024187349924</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.614608</v>
+        <v>8.050905999999999</v>
       </c>
       <c r="H4">
-        <v>67.843824</v>
+        <v>24.152718</v>
       </c>
       <c r="I4">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="J4">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.50281533333334</v>
+        <v>36.14947766666667</v>
       </c>
       <c r="N4">
-        <v>100.508446</v>
+        <v>108.448433</v>
       </c>
       <c r="O4">
-        <v>0.1977558828577406</v>
+        <v>0.1410701724382803</v>
       </c>
       <c r="P4">
-        <v>0.1977558828577405</v>
+        <v>0.1410701724382803</v>
       </c>
       <c r="Q4">
-        <v>757.6530356597228</v>
+        <v>291.0360466434327</v>
       </c>
       <c r="R4">
-        <v>6818.877320937504</v>
+        <v>2619.324419790894</v>
       </c>
       <c r="S4">
-        <v>0.07218462559653287</v>
+        <v>0.02664404360404385</v>
       </c>
       <c r="T4">
-        <v>0.07218462559653285</v>
+        <v>0.02664404360404385</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.614608</v>
+        <v>8.050905999999999</v>
       </c>
       <c r="H5">
-        <v>67.843824</v>
+        <v>24.152718</v>
       </c>
       <c r="I5">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="J5">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.17812733333333</v>
+        <v>25.25999466666667</v>
       </c>
       <c r="N5">
-        <v>84.53438199999999</v>
+        <v>75.779984</v>
       </c>
       <c r="O5">
-        <v>0.1663260353686444</v>
+        <v>0.09857491818484938</v>
       </c>
       <c r="P5">
-        <v>0.1663260353686444</v>
+        <v>0.09857491818484938</v>
       </c>
       <c r="Q5">
-        <v>637.2373038174187</v>
+        <v>203.3658426218347</v>
       </c>
       <c r="R5">
-        <v>5735.135734356767</v>
+        <v>1830.292583596512</v>
       </c>
       <c r="S5">
-        <v>0.06071213870627635</v>
+        <v>0.0186179287441594</v>
       </c>
       <c r="T5">
-        <v>0.06071213870627633</v>
+        <v>0.0186179287441594</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>37.145801</v>
       </c>
       <c r="I6">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="J6">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>92.59233966666666</v>
+        <v>179.7005413333333</v>
       </c>
       <c r="N6">
-        <v>277.777019</v>
+        <v>539.101624</v>
       </c>
       <c r="O6">
-        <v>0.5465415277631132</v>
+        <v>0.7012656334041908</v>
       </c>
       <c r="P6">
-        <v>0.5465415277631133</v>
+        <v>0.7012656334041907</v>
       </c>
       <c r="Q6">
-        <v>1146.472207794135</v>
+        <v>2225.040182653425</v>
       </c>
       <c r="R6">
-        <v>10318.24987014722</v>
+        <v>20025.36164388082</v>
       </c>
       <c r="S6">
-        <v>0.109228978412776</v>
+        <v>0.203700085714813</v>
       </c>
       <c r="T6">
-        <v>0.109228978412776</v>
+        <v>0.2037000857148129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>37.145801</v>
       </c>
       <c r="I7">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="J7">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>45.42519</v>
       </c>
       <c r="O7">
-        <v>0.08937655401050183</v>
+        <v>0.05908927597267952</v>
       </c>
       <c r="P7">
-        <v>0.08937655401050183</v>
+        <v>0.05908927597267952</v>
       </c>
       <c r="Q7">
         <v>187.4838964585767</v>
@@ -883,10 +883,10 @@
         <v>1687.35506812719</v>
       </c>
       <c r="S7">
-        <v>0.01786233834522593</v>
+        <v>0.01716395329688649</v>
       </c>
       <c r="T7">
-        <v>0.01786233834522592</v>
+        <v>0.01716395329688649</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>37.145801</v>
       </c>
       <c r="I8">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="J8">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.50281533333334</v>
+        <v>36.14947766666667</v>
       </c>
       <c r="N8">
-        <v>100.508446</v>
+        <v>108.448433</v>
       </c>
       <c r="O8">
-        <v>0.1977558828577406</v>
+        <v>0.1410701724382803</v>
       </c>
       <c r="P8">
-        <v>0.1977558828577405</v>
+        <v>0.1410701724382803</v>
       </c>
       <c r="Q8">
-        <v>414.8296371039163</v>
+        <v>447.6004345533148</v>
       </c>
       <c r="R8">
-        <v>3733.466733935246</v>
+        <v>4028.403910979833</v>
       </c>
       <c r="S8">
-        <v>0.03952247352195708</v>
+        <v>0.04097734845209287</v>
       </c>
       <c r="T8">
-        <v>0.03952247352195707</v>
+        <v>0.04097734845209287</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>37.145801</v>
       </c>
       <c r="I9">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="J9">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.17812733333333</v>
+        <v>25.25999466666667</v>
       </c>
       <c r="N9">
-        <v>84.53438199999999</v>
+        <v>75.779984</v>
       </c>
       <c r="O9">
-        <v>0.1663260353686444</v>
+        <v>0.09857491818484938</v>
       </c>
       <c r="P9">
-        <v>0.1663260353686444</v>
+        <v>0.09857491818484938</v>
       </c>
       <c r="Q9">
-        <v>348.8997034922202</v>
+        <v>312.7675783830205</v>
       </c>
       <c r="R9">
-        <v>3140.097331429982</v>
+        <v>2814.908205447184</v>
       </c>
       <c r="S9">
-        <v>0.03324106587311085</v>
+        <v>0.0286335424511115</v>
       </c>
       <c r="T9">
-        <v>0.03324106587311084</v>
+        <v>0.0286335424511115</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.135311000000001</v>
+        <v>8.230170000000001</v>
       </c>
       <c r="H10">
-        <v>21.405933</v>
+        <v>24.69051</v>
       </c>
       <c r="I10">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="J10">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>92.59233966666666</v>
+        <v>179.7005413333333</v>
       </c>
       <c r="N10">
-        <v>277.777019</v>
+        <v>539.101624</v>
       </c>
       <c r="O10">
-        <v>0.5465415277631132</v>
+        <v>0.7012656334041908</v>
       </c>
       <c r="P10">
-        <v>0.5465415277631133</v>
+        <v>0.7012656334041907</v>
       </c>
       <c r="Q10">
-        <v>660.6751397393031</v>
+        <v>1478.96600426536</v>
       </c>
       <c r="R10">
-        <v>5946.076257653727</v>
+        <v>13310.69403838824</v>
       </c>
       <c r="S10">
-        <v>0.06294515478512175</v>
+        <v>0.1353977803128393</v>
       </c>
       <c r="T10">
-        <v>0.06294515478512175</v>
+        <v>0.1353977803128393</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.135311000000001</v>
+        <v>8.230170000000001</v>
       </c>
       <c r="H11">
-        <v>21.405933</v>
+        <v>24.69051</v>
       </c>
       <c r="I11">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="J11">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>45.42519</v>
       </c>
       <c r="O11">
-        <v>0.08937655401050183</v>
+        <v>0.05908927597267952</v>
       </c>
       <c r="P11">
-        <v>0.08937655401050183</v>
+        <v>0.05908927597267952</v>
       </c>
       <c r="Q11">
-        <v>108.04095262803</v>
+        <v>124.6190119941</v>
       </c>
       <c r="R11">
-        <v>972.36857365227</v>
+        <v>1121.5711079469</v>
       </c>
       <c r="S11">
-        <v>0.01029349233420049</v>
+        <v>0.01140873932201136</v>
       </c>
       <c r="T11">
-        <v>0.01029349233420049</v>
+        <v>0.01140873932201136</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.135311000000001</v>
+        <v>8.230170000000001</v>
       </c>
       <c r="H12">
-        <v>21.405933</v>
+        <v>24.69051</v>
       </c>
       <c r="I12">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="J12">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.50281533333334</v>
+        <v>36.14947766666667</v>
       </c>
       <c r="N12">
-        <v>100.508446</v>
+        <v>108.448433</v>
       </c>
       <c r="O12">
-        <v>0.1977558828577406</v>
+        <v>0.1410701724382803</v>
       </c>
       <c r="P12">
-        <v>0.1977558828577405</v>
+        <v>0.1410701724382803</v>
       </c>
       <c r="Q12">
-        <v>239.053006778902</v>
+        <v>297.51634660787</v>
       </c>
       <c r="R12">
-        <v>2151.477061010118</v>
+        <v>2677.647119470831</v>
       </c>
       <c r="S12">
-        <v>0.0227755331001016</v>
+        <v>0.02723730824191632</v>
       </c>
       <c r="T12">
-        <v>0.0227755331001016</v>
+        <v>0.02723730824191632</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.135311000000001</v>
+        <v>8.230170000000001</v>
       </c>
       <c r="H13">
-        <v>21.405933</v>
+        <v>24.69051</v>
       </c>
       <c r="I13">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="J13">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.17812733333333</v>
+        <v>25.25999466666667</v>
       </c>
       <c r="N13">
-        <v>84.53438199999999</v>
+        <v>75.779984</v>
       </c>
       <c r="O13">
-        <v>0.1663260353686444</v>
+        <v>0.09857491818484938</v>
       </c>
       <c r="P13">
-        <v>0.1663260353686444</v>
+        <v>0.09857491818484938</v>
       </c>
       <c r="Q13">
-        <v>201.059701920934</v>
+        <v>207.89405030576</v>
       </c>
       <c r="R13">
-        <v>1809.537317288406</v>
+        <v>1871.04645275184</v>
       </c>
       <c r="S13">
-        <v>0.01915575946062914</v>
+        <v>0.01903248138933909</v>
       </c>
       <c r="T13">
-        <v>0.01915575946062914</v>
+        <v>0.01903248138933909</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.82277733333333</v>
+        <v>13.96350433333333</v>
       </c>
       <c r="H14">
-        <v>59.468332</v>
+        <v>41.890513</v>
       </c>
       <c r="I14">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="J14">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>92.59233966666666</v>
+        <v>179.7005413333333</v>
       </c>
       <c r="N14">
-        <v>277.777019</v>
+        <v>539.101624</v>
       </c>
       <c r="O14">
-        <v>0.5465415277631132</v>
+        <v>0.7012656334041908</v>
       </c>
       <c r="P14">
-        <v>0.5465415277631133</v>
+        <v>0.7012656334041907</v>
       </c>
       <c r="Q14">
-        <v>1835.4373319847</v>
+        <v>2509.249287610346</v>
       </c>
       <c r="R14">
-        <v>16518.93598786231</v>
+        <v>22583.24358849311</v>
       </c>
       <c r="S14">
-        <v>0.1748694328134638</v>
+        <v>0.2297191299963484</v>
       </c>
       <c r="T14">
-        <v>0.1748694328134638</v>
+        <v>0.2297191299963483</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.82277733333333</v>
+        <v>13.96350433333333</v>
       </c>
       <c r="H15">
-        <v>59.468332</v>
+        <v>41.890513</v>
       </c>
       <c r="I15">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="J15">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>45.42519</v>
       </c>
       <c r="O15">
-        <v>0.08937655401050183</v>
+        <v>0.05908927597267952</v>
       </c>
       <c r="P15">
-        <v>0.08937655401050183</v>
+        <v>0.05908927597267952</v>
       </c>
       <c r="Q15">
-        <v>300.1511422314533</v>
+        <v>211.4316124691633</v>
       </c>
       <c r="R15">
-        <v>2701.36028008308</v>
+        <v>1902.88451222247</v>
       </c>
       <c r="S15">
-        <v>0.02859659607313962</v>
+        <v>0.01935634148028243</v>
       </c>
       <c r="T15">
-        <v>0.02859659607313962</v>
+        <v>0.01935634148028243</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.82277733333333</v>
+        <v>13.96350433333333</v>
       </c>
       <c r="H16">
-        <v>59.468332</v>
+        <v>41.890513</v>
       </c>
       <c r="I16">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="J16">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.50281533333334</v>
+        <v>36.14947766666667</v>
       </c>
       <c r="N16">
-        <v>100.508446</v>
+        <v>108.448433</v>
       </c>
       <c r="O16">
-        <v>0.1977558828577406</v>
+        <v>0.1410701724382803</v>
       </c>
       <c r="P16">
-        <v>0.1977558828577405</v>
+        <v>0.1410701724382803</v>
       </c>
       <c r="Q16">
-        <v>664.1188483924525</v>
+        <v>504.7733880462366</v>
       </c>
       <c r="R16">
-        <v>5977.069635532072</v>
+        <v>4542.960492416129</v>
       </c>
       <c r="S16">
-        <v>0.06327325063914903</v>
+        <v>0.04621147214022726</v>
       </c>
       <c r="T16">
-        <v>0.06327325063914901</v>
+        <v>0.04621147214022726</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.82277733333333</v>
+        <v>13.96350433333333</v>
       </c>
       <c r="H17">
-        <v>59.468332</v>
+        <v>41.890513</v>
       </c>
       <c r="I17">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="J17">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.17812733333333</v>
+        <v>25.25999466666667</v>
       </c>
       <c r="N17">
-        <v>84.53438199999999</v>
+        <v>75.779984</v>
       </c>
       <c r="O17">
-        <v>0.1663260353686444</v>
+        <v>0.09857491818484938</v>
       </c>
       <c r="P17">
-        <v>0.1663260353686444</v>
+        <v>0.09857491818484938</v>
       </c>
       <c r="Q17">
-        <v>558.5687437989803</v>
+        <v>352.7180449879769</v>
       </c>
       <c r="R17">
-        <v>5027.118694190824</v>
+        <v>3174.462404891792</v>
       </c>
       <c r="S17">
-        <v>0.05321707132862811</v>
+        <v>0.0322909656002394</v>
       </c>
       <c r="T17">
-        <v>0.05321707132862811</v>
+        <v>0.0322909656002394</v>
       </c>
     </row>
   </sheetData>
